--- a/sofaplayer/La_Liga/Espanyol_stats.xlsx
+++ b/sofaplayer/La_Liga/Espanyol_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>1392592</v>
       </c>
       <c r="E2" t="n">
-        <v>6.6652173913043</v>
+        <v>6.6333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>1649</v>
+        <v>1732</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>5.4675</v>
+        <v>5.631</v>
       </c>
       <c r="L2" t="n">
-        <v>329.8</v>
+        <v>346.4</v>
       </c>
       <c r="M2" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" t="n">
         <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P2" t="n">
-        <v>12.19512195122</v>
+        <v>11.904761904762</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -1101,10 +1101,10 @@
         <v>2</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.32416116</v>
+        <v>2.32467584</v>
       </c>
       <c r="AB2" t="n">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="AC2" t="n">
         <v>6</v>
@@ -1113,19 +1113,19 @@
         <v>16</v>
       </c>
       <c r="AE2" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AF2" t="n">
-        <v>69.583333333333</v>
+        <v>69.230769230769</v>
       </c>
       <c r="AG2" t="n">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="AH2" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AI2" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ2" t="n">
         <v>66</v>
@@ -1155,7 +1155,7 @@
         <v>44</v>
       </c>
       <c r="AS2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT2" t="n">
         <v>20</v>
@@ -1182,25 +1182,25 @@
         <v>84</v>
       </c>
       <c r="BB2" t="n">
-        <v>36.681222707424</v>
+        <v>35.593220338983</v>
       </c>
       <c r="BC2" t="n">
         <v>44</v>
       </c>
       <c r="BD2" t="n">
-        <v>41.509433962264</v>
+        <v>39.63963963964</v>
       </c>
       <c r="BE2" t="n">
         <v>40</v>
       </c>
       <c r="BF2" t="n">
-        <v>32.520325203252</v>
+        <v>32</v>
       </c>
       <c r="BG2" t="n">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="BH2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BI2" t="n">
         <v>34</v>
@@ -1221,28 +1221,28 @@
         <v>4</v>
       </c>
       <c r="BO2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>153.3</v>
+        <v>159.2</v>
       </c>
       <c r="BR2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS2" t="n">
         <v>7</v>
       </c>
       <c r="BT2" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BW2" t="n">
         <v>1</v>
@@ -1254,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CA2" t="n">
         <v>7</v>
       </c>
       <c r="CB2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CC2" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CK2" t="n">
         <v>5</v>
@@ -1317,10 +1317,10 @@
         <v>6</v>
       </c>
       <c r="CU2" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="CV2" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="DG2" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>877037</v>
       </c>
       <c r="E3" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1457,34 +1457,34 @@
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.063288</v>
+        <v>0.174928</v>
       </c>
       <c r="AB3" t="n">
+        <v>56</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE3" t="n">
         <v>27</v>
       </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>10</v>
-      </c>
       <c r="AF3" t="n">
-        <v>71.428571428571</v>
+        <v>87.096774193548</v>
       </c>
       <c r="AG3" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI3" t="n">
         <v>14</v>
       </c>
-      <c r="AH3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>5</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
@@ -1493,13 +1493,13 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN3" t="n">
         <v>25</v>
       </c>
       <c r="AO3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP3" t="n">
         <v>2</v>
@@ -1508,43 +1508,43 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
         <v>2</v>
       </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>0</v>
+        <v>28.571428571429</v>
       </c>
       <c r="BA3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB3" t="n">
-        <v>71.428571428571</v>
+        <v>61.538461538462</v>
       </c>
       <c r="BC3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD3" t="n">
-        <v>66.666666666667</v>
+        <v>58.333333333333</v>
       </c>
       <c r="BE3" t="n">
         <v>1</v>
@@ -1553,40 +1553,40 @@
         <v>100</v>
       </c>
       <c r="BG3" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
       </c>
       <c r="BI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="BR3" t="n">
         <v>2</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>1</v>
       </c>
       <c r="BS3" t="n">
         <v>1</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK3" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="CR3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CS3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CT3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="CU3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CV3" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="DG3" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,40 +1747,40 @@
         <v>84972</v>
       </c>
       <c r="E4" t="n">
-        <v>6.6454545454545</v>
+        <v>6.7</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" t="n">
         <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>905</v>
+        <v>939</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6776</v>
+        <v>4.826</v>
       </c>
       <c r="L4" t="n">
-        <v>301.66666666667</v>
+        <v>234.75</v>
       </c>
       <c r="M4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O4" t="n">
         <v>6</v>
       </c>
       <c r="P4" t="n">
-        <v>9.375</v>
+        <v>11.764705882353</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
         <v>2</v>
@@ -1813,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.06652296</v>
+        <v>2.08301666</v>
       </c>
       <c r="AB4" t="n">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="AC4" t="n">
         <v>3</v>
@@ -1825,22 +1825,22 @@
         <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AF4" t="n">
-        <v>61.576354679803</v>
+        <v>62.380952380952</v>
       </c>
       <c r="AG4" t="n">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AH4" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI4" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="n">
         <v>2</v>
@@ -1858,13 +1858,13 @@
         <v>3</v>
       </c>
       <c r="AP4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS4" t="n">
         <v>6</v>
@@ -1885,40 +1885,40 @@
         <v>0</v>
       </c>
       <c r="AY4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ4" t="n">
-        <v>38.888888888889</v>
+        <v>42.105263157895</v>
       </c>
       <c r="BA4" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="BB4" t="n">
-        <v>47.222222222222</v>
+        <v>47.872340425532</v>
       </c>
       <c r="BC4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BD4" t="n">
-        <v>43.181818181818</v>
+        <v>43.478260869565</v>
       </c>
       <c r="BE4" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="BF4" t="n">
-        <v>51.086956521739</v>
+        <v>52.083333333333</v>
       </c>
       <c r="BG4" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="BH4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BI4" t="n">
         <v>25</v>
       </c>
       <c r="BJ4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BK4" t="n">
         <v>3</v>
@@ -1933,29 +1933,29 @@
         <v>0</v>
       </c>
       <c r="BO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>23</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>79</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
         <v>12</v>
       </c>
-      <c r="BP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>146.2</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>22</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>4</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>78</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>11</v>
-      </c>
       <c r="BW4" t="n">
         <v>1</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CA4" t="n">
         <v>3</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CK4" t="n">
         <v>2</v>
@@ -2023,16 +2023,16 @@
         <v>15</v>
       </c>
       <c r="CS4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CT4" t="n">
         <v>9</v>
       </c>
       <c r="CU4" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="CV4" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CW4" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>7</v>
       </c>
       <c r="DA4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DB4" t="n">
-        <v>66.666666666667</v>
+        <v>71.428571428571</v>
       </c>
       <c r="DC4" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="DG4" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>758664</v>
       </c>
       <c r="E5" t="n">
-        <v>6.5714285714286</v>
+        <v>6.5533333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>409</v>
+        <v>465</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2169,34 +2169,34 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.06942975999999999</v>
+        <v>0.07535632</v>
       </c>
       <c r="AB5" t="n">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="AF5" t="n">
-        <v>80.26315789473701</v>
+        <v>80.357142857143</v>
       </c>
       <c r="AG5" t="n">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="AH5" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="AI5" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AK5" t="n">
         <v>4</v>
@@ -2220,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="AR5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS5" t="n">
         <v>4</v>
@@ -2247,28 +2247,28 @@
         <v>80</v>
       </c>
       <c r="BA5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BB5" t="n">
-        <v>43.396226415094</v>
+        <v>44.827586206897</v>
       </c>
       <c r="BC5" t="n">
         <v>14</v>
       </c>
       <c r="BD5" t="n">
-        <v>46.666666666667</v>
+        <v>43.75</v>
       </c>
       <c r="BE5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BF5" t="n">
-        <v>39.130434782609</v>
+        <v>46.153846153846</v>
       </c>
       <c r="BG5" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="BH5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI5" t="n">
         <v>1</v>
@@ -2289,22 +2289,22 @@
         <v>1</v>
       </c>
       <c r="BO5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>92</v>
+        <v>98.3</v>
       </c>
       <c r="BR5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS5" t="n">
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK5" t="n">
         <v>0</v>
@@ -2376,16 +2376,16 @@
         <v>0</v>
       </c>
       <c r="CR5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CS5" t="n">
         <v>5</v>
       </c>
       <c r="CT5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CU5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CV5" t="n">
         <v>14</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="DG5" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>877262</v>
       </c>
       <c r="E7" t="n">
-        <v>7.0954545454545</v>
+        <v>7.0739130434783</v>
       </c>
       <c r="F7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>1526</v>
+        <v>1582</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -2833,16 +2833,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1.6205</v>
+        <v>1.6297</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>3</v>
@@ -2881,10 +2881,10 @@
         <v>5</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.24594363</v>
+        <v>5.25972603</v>
       </c>
       <c r="AB7" t="n">
-        <v>1047</v>
+        <v>1083</v>
       </c>
       <c r="AC7" t="n">
         <v>8</v>
@@ -2893,49 +2893,49 @@
         <v>56</v>
       </c>
       <c r="AE7" t="n">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="AF7" t="n">
-        <v>77.464788732394</v>
+        <v>77.428998505232</v>
       </c>
       <c r="AG7" t="n">
-        <v>639</v>
+        <v>669</v>
       </c>
       <c r="AH7" t="n">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="AI7" t="n">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AJ7" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AK7" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL7" t="n">
-        <v>43.877551020408</v>
+        <v>42.718446601942</v>
       </c>
       <c r="AM7" t="n">
         <v>47</v>
       </c>
       <c r="AN7" t="n">
-        <v>27.97619047619</v>
+        <v>27.647058823529</v>
       </c>
       <c r="AO7" t="n">
         <v>14</v>
       </c>
       <c r="AP7" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AQ7" t="n">
         <v>7</v>
       </c>
       <c r="AR7" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AS7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT7" t="n">
         <v>18</v>
@@ -2959,16 +2959,16 @@
         <v>72</v>
       </c>
       <c r="BA7" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="BB7" t="n">
-        <v>52.760736196319</v>
+        <v>52.97619047619</v>
       </c>
       <c r="BC7" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BD7" t="n">
-        <v>52.941176470588</v>
+        <v>53.191489361702</v>
       </c>
       <c r="BE7" t="n">
         <v>14</v>
@@ -2977,13 +2977,13 @@
         <v>51.851851851852</v>
       </c>
       <c r="BG7" t="n">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="BH7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BI7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BJ7" t="n">
         <v>2</v>
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>156.1</v>
+        <v>162.7</v>
       </c>
       <c r="BR7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS7" t="n">
         <v>5</v>
       </c>
       <c r="BT7" t="n">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>6</v>
       </c>
       <c r="CA7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CB7" t="n">
         <v>27</v>
       </c>
       <c r="CC7" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="CD7" t="n">
         <v>38</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CK7" t="n">
         <v>5</v>
@@ -3094,10 +3094,10 @@
         <v>25</v>
       </c>
       <c r="CT7" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="CU7" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="CV7" t="n">
         <v>13</v>
@@ -3112,13 +3112,13 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="DA7" t="n">
         <v>18</v>
       </c>
       <c r="DB7" t="n">
-        <v>58.064516129032</v>
+        <v>54.545454545455</v>
       </c>
       <c r="DC7" t="n">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="DG7" t="n">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         <v>175185</v>
       </c>
       <c r="E8" t="n">
-        <v>6.7666666666667</v>
+        <v>6.7590909090909</v>
       </c>
       <c r="F8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" t="n">
-        <v>1451</v>
+        <v>1523</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>5.8161</v>
       </c>
       <c r="L8" t="n">
-        <v>241.83333333333</v>
+        <v>253.83333333333</v>
       </c>
       <c r="M8" t="n">
         <v>48</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.94758845</v>
+        <v>2.01787875</v>
       </c>
       <c r="AB8" t="n">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="AC8" t="n">
         <v>4</v>
@@ -3249,52 +3249,52 @@
         <v>28</v>
       </c>
       <c r="AE8" t="n">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="AF8" t="n">
-        <v>73.228346456693</v>
+        <v>73.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="AH8" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AI8" t="n">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AJ8" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AK8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL8" t="n">
-        <v>48.148148148148</v>
+        <v>48.275862068966</v>
       </c>
       <c r="AM8" t="n">
         <v>3</v>
       </c>
       <c r="AN8" t="n">
-        <v>11.538461538462</v>
+        <v>11.111111111111</v>
       </c>
       <c r="AO8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AT8" t="n">
         <v>11</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>49</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>10</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -3312,19 +3312,19 @@
         <v>6</v>
       </c>
       <c r="AZ8" t="n">
-        <v>46.153846153846</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BA8" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="BB8" t="n">
-        <v>44.171779141104</v>
+        <v>44.311377245509</v>
       </c>
       <c r="BC8" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="BD8" t="n">
-        <v>43.089430894309</v>
+        <v>43.307086614173</v>
       </c>
       <c r="BE8" t="n">
         <v>19</v>
@@ -3333,13 +3333,13 @@
         <v>47.5</v>
       </c>
       <c r="BG8" t="n">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="BH8" t="n">
         <v>17</v>
       </c>
       <c r="BI8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BJ8" t="n">
         <v>8</v>
@@ -3357,22 +3357,22 @@
         <v>1</v>
       </c>
       <c r="BO8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>142.1</v>
+        <v>148.7</v>
       </c>
       <c r="BR8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS8" t="n">
         <v>6</v>
       </c>
       <c r="BT8" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="BU8" t="n">
         <v>1</v>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CK8" t="n">
         <v>1</v>
@@ -3447,13 +3447,13 @@
         <v>28</v>
       </c>
       <c r="CS8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CT8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CU8" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="CV8" t="n">
         <v>21</v>
@@ -3468,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="DA8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="DB8" t="n">
-        <v>56</v>
+        <v>57.692307692308</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="DG8" t="n">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3527,40 +3527,40 @@
         <v>1063015</v>
       </c>
       <c r="E9" t="n">
-        <v>6.7181818181818</v>
+        <v>6.7478260869565</v>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" t="n">
         <v>17</v>
       </c>
       <c r="H9" t="n">
-        <v>1483</v>
+        <v>1517</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1.5225</v>
+        <v>1.6763</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1517</v>
       </c>
       <c r="M9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>4.3478260869565</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -3593,10 +3593,10 @@
         <v>3</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.60395037</v>
+        <v>2.60729375</v>
       </c>
       <c r="AB9" t="n">
-        <v>762</v>
+        <v>782</v>
       </c>
       <c r="AC9" t="n">
         <v>4</v>
@@ -3605,22 +3605,22 @@
         <v>20</v>
       </c>
       <c r="AE9" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AF9" t="n">
-        <v>83.513513513514</v>
+        <v>83.244680851064</v>
       </c>
       <c r="AG9" t="n">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AH9" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AI9" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AJ9" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK9" t="n">
         <v>3</v>
@@ -3632,28 +3632,28 @@
         <v>18</v>
       </c>
       <c r="AN9" t="n">
-        <v>26.470588235294</v>
+        <v>25.352112676056</v>
       </c>
       <c r="AO9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ9" t="n">
         <v>12</v>
       </c>
       <c r="AR9" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT9" t="n">
         <v>8</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
@@ -3671,16 +3671,16 @@
         <v>38.59649122807</v>
       </c>
       <c r="BA9" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BB9" t="n">
-        <v>49.75845410628</v>
+        <v>49.760765550239</v>
       </c>
       <c r="BC9" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BD9" t="n">
-        <v>52.486187845304</v>
+        <v>52.459016393443</v>
       </c>
       <c r="BE9" t="n">
         <v>8</v>
@@ -3689,7 +3689,7 @@
         <v>30.769230769231</v>
       </c>
       <c r="BG9" t="n">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="BH9" t="n">
         <v>24</v>
@@ -3713,22 +3713,22 @@
         <v>1</v>
       </c>
       <c r="BO9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BP9" t="n">
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>147.8</v>
+        <v>155.2</v>
       </c>
       <c r="BR9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT9" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3746,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CA9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CB9" t="n">
         <v>23</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CK9" t="n">
         <v>3</v>
@@ -3806,10 +3806,10 @@
         <v>57</v>
       </c>
       <c r="CT9" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="CU9" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="CV9" t="n">
         <v>18</v>
@@ -3830,7 +3830,7 @@
         <v>26</v>
       </c>
       <c r="DB9" t="n">
-        <v>65</v>
+        <v>63.414634146341</v>
       </c>
       <c r="DC9" t="n">
         <v>1</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="DG9" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>826010</v>
       </c>
       <c r="E10" t="n">
-        <v>6.6619047619048</v>
+        <v>6.6863636363636</v>
       </c>
       <c r="F10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>1485</v>
+        <v>1575</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>0.3732</v>
       </c>
       <c r="L10" t="n">
-        <v>1485</v>
+        <v>1575</v>
       </c>
       <c r="M10" t="n">
         <v>11</v>
@@ -3949,61 +3949,61 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.18021329</v>
+        <v>1.25782879</v>
       </c>
       <c r="AB10" t="n">
-        <v>814</v>
+        <v>882</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
-        <v>552</v>
+        <v>597</v>
       </c>
       <c r="AF10" t="n">
-        <v>87.34177215189899</v>
+        <v>87.408491947291</v>
       </c>
       <c r="AG10" t="n">
-        <v>632</v>
+        <v>683</v>
       </c>
       <c r="AH10" t="n">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="AI10" t="n">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="AJ10" t="n">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="AK10" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AL10" t="n">
-        <v>61.363636363636</v>
+        <v>62.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN10" t="n">
-        <v>17.647058823529</v>
+        <v>21.739130434783</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
         <v>5</v>
       </c>
       <c r="AR10" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AS10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT10" t="n">
         <v>15</v>
@@ -4027,31 +4027,31 @@
         <v>14.285714285714</v>
       </c>
       <c r="BA10" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="BB10" t="n">
-        <v>36.551724137931</v>
+        <v>37.086092715232</v>
       </c>
       <c r="BC10" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="BD10" t="n">
-        <v>36.507936507937</v>
+        <v>37.404580152672</v>
       </c>
       <c r="BE10" t="n">
         <v>7</v>
       </c>
       <c r="BF10" t="n">
-        <v>36.842105263158</v>
+        <v>35</v>
       </c>
       <c r="BG10" t="n">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="BH10" t="n">
         <v>46</v>
       </c>
       <c r="BI10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BJ10" t="n">
         <v>0</v>
@@ -4069,22 +4069,22 @@
         <v>4</v>
       </c>
       <c r="BO10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>139.9</v>
+        <v>147.1</v>
       </c>
       <c r="BR10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS10" t="n">
         <v>1</v>
       </c>
       <c r="BT10" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4108,13 +4108,13 @@
         <v>9</v>
       </c>
       <c r="CB10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CC10" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="CD10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="CK10" t="n">
         <v>5</v>
@@ -4156,37 +4156,37 @@
         <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="CS10" t="n">
         <v>7</v>
       </c>
       <c r="CT10" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="CU10" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="CV10" t="n">
+        <v>13</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>48</v>
+      </c>
+      <c r="DA10" t="n">
         <v>12</v>
       </c>
-      <c r="CW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ10" t="n">
-        <v>44</v>
-      </c>
-      <c r="DA10" t="n">
-        <v>11</v>
-      </c>
       <c r="DB10" t="n">
-        <v>44</v>
+        <v>46.153846153846</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4198,16 +4198,16 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="DG10" t="n">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
       </c>
       <c r="DI10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DJ10" t="n">
         <v>2147923</v>
@@ -4239,16 +4239,16 @@
         <v>1088565</v>
       </c>
       <c r="E11" t="n">
-        <v>6.6642857142857</v>
+        <v>6.6933333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" t="n">
         <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>0.6526999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
@@ -4302,37 +4302,37 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.33929727</v>
+        <v>0.57385727</v>
       </c>
       <c r="AB11" t="n">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AC11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AF11" t="n">
-        <v>76.576576576577</v>
+        <v>76.31578947368401</v>
       </c>
       <c r="AG11" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AH11" t="n">
         <v>33</v>
       </c>
       <c r="AI11" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AJ11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK11" t="n">
         <v>4</v>
@@ -4383,16 +4383,16 @@
         <v>37.5</v>
       </c>
       <c r="BA11" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BB11" t="n">
-        <v>48.529411764706</v>
+        <v>50</v>
       </c>
       <c r="BC11" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BD11" t="n">
-        <v>52.941176470588</v>
+        <v>54.716981132075</v>
       </c>
       <c r="BE11" t="n">
         <v>6</v>
@@ -4401,46 +4401,46 @@
         <v>35.294117647059</v>
       </c>
       <c r="BG11" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BH11" t="n">
         <v>5</v>
       </c>
       <c r="BI11" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="n">
         <v>8</v>
       </c>
-      <c r="BJ11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>7</v>
-      </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>93.3</v>
+        <v>100.4</v>
       </c>
       <c r="BR11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK11" t="n">
         <v>3</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="CR11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CS11" t="n">
         <v>8</v>
@@ -4557,7 +4557,7 @@
         <v>37</v>
       </c>
       <c r="DG11" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4595,16 +4595,16 @@
         <v>1064009</v>
       </c>
       <c r="E12" t="n">
-        <v>6.6727272727273</v>
+        <v>6.695652173913</v>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" t="n">
         <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>1431</v>
+        <v>1465</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4613,13 +4613,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3955</v>
+        <v>0.4765</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
@@ -4661,34 +4661,34 @@
         <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.27034676</v>
+        <v>0.37248776</v>
       </c>
       <c r="AB12" t="n">
-        <v>771</v>
+        <v>790</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="AF12" t="n">
-        <v>81.918819188192</v>
+        <v>82.097649186257</v>
       </c>
       <c r="AG12" t="n">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="AH12" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AI12" t="n">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AJ12" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="n">
         <v>12</v>
@@ -4706,13 +4706,13 @@
         <v>19</v>
       </c>
       <c r="AP12" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AQ12" t="n">
         <v>5</v>
       </c>
       <c r="AR12" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS12" t="n">
         <v>29</v>
@@ -4721,7 +4721,7 @@
         <v>36</v>
       </c>
       <c r="AU12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV12" t="n">
         <v>1</v>
@@ -4739,16 +4739,16 @@
         <v>50</v>
       </c>
       <c r="BA12" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BB12" t="n">
-        <v>48.648648648649</v>
+        <v>50</v>
       </c>
       <c r="BC12" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="BD12" t="n">
-        <v>46.72131147541</v>
+        <v>48.412698412698</v>
       </c>
       <c r="BE12" t="n">
         <v>15</v>
@@ -4757,13 +4757,13 @@
         <v>57.692307692308</v>
       </c>
       <c r="BG12" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="BH12" t="n">
         <v>18</v>
       </c>
       <c r="BI12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BJ12" t="n">
         <v>0</v>
@@ -4781,22 +4781,22 @@
         <v>3</v>
       </c>
       <c r="BO12" t="n">
+        <v>24</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>154</v>
+      </c>
+      <c r="BR12" t="n">
         <v>23</v>
       </c>
-      <c r="BP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>22</v>
-      </c>
       <c r="BS12" t="n">
         <v>1</v>
       </c>
       <c r="BT12" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="BZ12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CA12" t="n">
         <v>5</v>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="CF12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG12" t="n">
         <v>0</v>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CK12" t="n">
         <v>5</v>
@@ -4874,7 +4874,7 @@
         <v>8</v>
       </c>
       <c r="CT12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CU12" t="n">
         <v>76</v>
@@ -4895,10 +4895,10 @@
         <v>39</v>
       </c>
       <c r="DA12" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="DB12" t="n">
-        <v>67.741935483871</v>
+        <v>70.58823529411799</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4910,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="DG12" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -4951,16 +4951,16 @@
         <v>1019236</v>
       </c>
       <c r="E13" t="n">
-        <v>6.6266666666667</v>
+        <v>6.61875</v>
       </c>
       <c r="F13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
         <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.21878542</v>
+        <v>1.22159285</v>
       </c>
       <c r="AB13" t="n">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="AC13" t="n">
         <v>2</v>
@@ -5029,22 +5029,22 @@
         <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AF13" t="n">
-        <v>72.463768115942</v>
+        <v>73.10344827586199</v>
       </c>
       <c r="AG13" t="n">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="AH13" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AI13" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AJ13" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AK13" t="n">
         <v>1</v>
@@ -5068,13 +5068,13 @@
         <v>2</v>
       </c>
       <c r="AR13" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AS13" t="n">
         <v>6</v>
       </c>
       <c r="AT13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU13" t="n">
         <v>4</v>
@@ -5098,13 +5098,13 @@
         <v>43</v>
       </c>
       <c r="BB13" t="n">
-        <v>50.588235294118</v>
+        <v>50</v>
       </c>
       <c r="BC13" t="n">
         <v>40</v>
       </c>
       <c r="BD13" t="n">
-        <v>51.948051948052</v>
+        <v>51.282051282051</v>
       </c>
       <c r="BE13" t="n">
         <v>3</v>
@@ -5113,10 +5113,10 @@
         <v>37.5</v>
       </c>
       <c r="BG13" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="BH13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI13" t="n">
         <v>19</v>
@@ -5137,22 +5137,22 @@
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>99.40000000000001</v>
+        <v>105.9</v>
       </c>
       <c r="BR13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS13" t="n">
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CK13" t="n">
         <v>3</v>
@@ -5233,7 +5233,7 @@
         <v>27</v>
       </c>
       <c r="CU13" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="CV13" t="n">
         <v>5</v>
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="DG13" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5663,16 +5663,16 @@
         <v>1064026</v>
       </c>
       <c r="E15" t="n">
-        <v>6.7380952380952</v>
+        <v>6.7636363636364</v>
       </c>
       <c r="F15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" t="n">
-        <v>1582</v>
+        <v>1672</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5729,61 +5729,61 @@
         <v>2</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.3745456</v>
+        <v>1.5086896</v>
       </c>
       <c r="AB15" t="n">
-        <v>1140</v>
+        <v>1212</v>
       </c>
       <c r="AC15" t="n">
         <v>2</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>608</v>
+        <v>653</v>
       </c>
       <c r="AF15" t="n">
-        <v>82.051282051282</v>
+        <v>82.34552332913</v>
       </c>
       <c r="AG15" t="n">
-        <v>741</v>
+        <v>793</v>
       </c>
       <c r="AH15" t="n">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="AI15" t="n">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="AJ15" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AK15" t="n">
         <v>38</v>
       </c>
       <c r="AL15" t="n">
-        <v>37.623762376238</v>
+        <v>36.190476190476</v>
       </c>
       <c r="AM15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AN15" t="n">
-        <v>31.034482758621</v>
+        <v>35.483870967742</v>
       </c>
       <c r="AO15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP15" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
       </c>
       <c r="AR15" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AS15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT15" t="n">
         <v>45</v>
@@ -5801,22 +5801,22 @@
         <v>1</v>
       </c>
       <c r="AY15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ15" t="n">
-        <v>66.666666666667</v>
+        <v>75</v>
       </c>
       <c r="BA15" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="BB15" t="n">
-        <v>54.014598540146</v>
+        <v>55.555555555556</v>
       </c>
       <c r="BC15" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="BD15" t="n">
-        <v>57.281553398058</v>
+        <v>59.090909090909</v>
       </c>
       <c r="BE15" t="n">
         <v>15</v>
@@ -5825,13 +5825,13 @@
         <v>44.117647058824</v>
       </c>
       <c r="BG15" t="n">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="BH15" t="n">
         <v>25</v>
       </c>
       <c r="BI15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BJ15" t="n">
         <v>1</v>
@@ -5849,22 +5849,22 @@
         <v>5</v>
       </c>
       <c r="BO15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>141.5</v>
+        <v>148.8</v>
       </c>
       <c r="BR15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS15" t="n">
         <v>2</v>
       </c>
       <c r="BT15" t="n">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5891,10 +5891,10 @@
         <v>3</v>
       </c>
       <c r="CC15" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="CD15" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CK15" t="n">
         <v>5</v>
@@ -5936,16 +5936,16 @@
         <v>0</v>
       </c>
       <c r="CR15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CS15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CT15" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CU15" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CV15" t="n">
         <v>19</v>
@@ -5960,13 +5960,13 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="DA15" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="DB15" t="n">
-        <v>75</v>
+        <v>74.468085106383</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5978,16 +5978,16 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="DG15" t="n">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
       </c>
       <c r="DI15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DJ15" t="n">
         <v>2147973</v>
@@ -6019,16 +6019,16 @@
         <v>1396048</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>6.9772727272727</v>
       </c>
       <c r="F16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" t="n">
-        <v>1860</v>
+        <v>1950</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -6037,13 +6037,13 @@
         <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>1.8523</v>
+        <v>1.9854</v>
       </c>
       <c r="L16" t="n">
-        <v>465</v>
+        <v>487.5</v>
       </c>
       <c r="M16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N16" t="n">
         <v>6</v>
@@ -6052,7 +6052,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>21.052631578947</v>
+        <v>20</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -6085,10 +6085,10 @@
         <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>2.38221962</v>
+        <v>2.40439692</v>
       </c>
       <c r="AB16" t="n">
-        <v>1141</v>
+        <v>1189</v>
       </c>
       <c r="AC16" t="n">
         <v>5</v>
@@ -6097,55 +6097,55 @@
         <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="AF16" t="n">
-        <v>77.98960138648199</v>
+        <v>78.239202657807</v>
       </c>
       <c r="AG16" t="n">
-        <v>577</v>
+        <v>602</v>
       </c>
       <c r="AH16" t="n">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AI16" t="n">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="AJ16" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL16" t="n">
-        <v>47.272727272727</v>
+        <v>47.368421052632</v>
       </c>
       <c r="AM16" t="n">
         <v>12</v>
       </c>
       <c r="AN16" t="n">
-        <v>19.672131147541</v>
+        <v>18.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP16" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AQ16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR16" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AU16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
@@ -6160,19 +6160,19 @@
         <v>26</v>
       </c>
       <c r="AZ16" t="n">
-        <v>53.061224489796</v>
+        <v>52</v>
       </c>
       <c r="BA16" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BB16" t="n">
-        <v>52.358490566038</v>
+        <v>52.073732718894</v>
       </c>
       <c r="BC16" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="BD16" t="n">
-        <v>53.645833333333</v>
+        <v>53.299492385787</v>
       </c>
       <c r="BE16" t="n">
         <v>8</v>
@@ -6181,7 +6181,7 @@
         <v>40</v>
       </c>
       <c r="BG16" t="n">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="BH16" t="n">
         <v>32</v>
@@ -6205,22 +6205,22 @@
         <v>6</v>
       </c>
       <c r="BO16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BP16" t="n">
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>147</v>
+        <v>153.5</v>
       </c>
       <c r="BR16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS16" t="n">
         <v>6</v>
       </c>
       <c r="BT16" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6238,19 +6238,19 @@
         <v>0</v>
       </c>
       <c r="BZ16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CA16" t="n">
         <v>9</v>
       </c>
       <c r="CB16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CC16" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="CD16" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CK16" t="n">
         <v>5</v>
@@ -6295,13 +6295,13 @@
         <v>15</v>
       </c>
       <c r="CS16" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="CT16" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="CU16" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="CV16" t="n">
         <v>12</v>
@@ -6316,13 +6316,13 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="DA16" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="DB16" t="n">
-        <v>62.121212121212</v>
+        <v>63.235294117647</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6334,10 +6334,10 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="DG16" t="n">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
@@ -6375,16 +6375,16 @@
         <v>81992</v>
       </c>
       <c r="E17" t="n">
-        <v>6.8681818181818</v>
+        <v>6.8347826086957</v>
       </c>
       <c r="F17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17" t="n">
-        <v>1980</v>
+        <v>2070</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -6393,13 +6393,13 @@
         <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2227</v>
+        <v>2.2467</v>
       </c>
       <c r="L17" t="n">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="M17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N17" t="n">
         <v>9</v>
@@ -6408,7 +6408,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="n">
-        <v>11.111111111111</v>
+        <v>10.714285714286</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -6441,10 +6441,10 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.11222009</v>
+        <v>1.11904991</v>
       </c>
       <c r="AB17" t="n">
-        <v>1187</v>
+        <v>1245</v>
       </c>
       <c r="AC17" t="n">
         <v>1</v>
@@ -6453,28 +6453,28 @@
         <v>6</v>
       </c>
       <c r="AE17" t="n">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="AF17" t="n">
-        <v>81.23644251626899</v>
+        <v>81.050463439753</v>
       </c>
       <c r="AG17" t="n">
-        <v>922</v>
+        <v>971</v>
       </c>
       <c r="AH17" t="n">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="AI17" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="AJ17" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AL17" t="n">
-        <v>40.625</v>
+        <v>39.411764705882</v>
       </c>
       <c r="AM17" t="n">
         <v>1</v>
@@ -6483,22 +6483,22 @@
         <v>7.1428571428571</v>
       </c>
       <c r="AO17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR17" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
         <v>15</v>
       </c>
       <c r="AT17" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AU17" t="n">
         <v>5</v>
@@ -6513,34 +6513,34 @@
         <v>0</v>
       </c>
       <c r="AY17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ17" t="n">
         <v>100</v>
       </c>
       <c r="BA17" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="BB17" t="n">
-        <v>58.959537572254</v>
+        <v>58.563535911602</v>
       </c>
       <c r="BC17" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="BD17" t="n">
-        <v>50.746268656716</v>
+        <v>52.112676056338</v>
       </c>
       <c r="BE17" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BF17" t="n">
-        <v>64.150943396226</v>
+        <v>62.727272727273</v>
       </c>
       <c r="BG17" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="BH17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BI17" t="n">
         <v>7</v>
@@ -6549,7 +6549,7 @@
         <v>1</v>
       </c>
       <c r="BK17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL17" t="n">
         <v>0</v>
@@ -6561,28 +6561,28 @@
         <v>6</v>
       </c>
       <c r="BO17" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>151.1</v>
+        <v>157.2</v>
       </c>
       <c r="BR17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS17" t="n">
         <v>3</v>
       </c>
       <c r="BT17" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
       </c>
       <c r="BV17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BW17" t="n">
         <v>0</v>
@@ -6594,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="BZ17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CA17" t="n">
         <v>0</v>
@@ -6603,10 +6603,10 @@
         <v>3</v>
       </c>
       <c r="CC17" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="CD17" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="CE17" t="n">
         <v>1</v>
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CK17" t="n">
         <v>6</v>
@@ -6651,16 +6651,16 @@
         <v>6</v>
       </c>
       <c r="CS17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CT17" t="n">
         <v>14</v>
       </c>
       <c r="CU17" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="CV17" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -6672,13 +6672,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="DA17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="DB17" t="n">
-        <v>41.666666666667</v>
+        <v>46.153846153846</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6690,10 +6690,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="DG17" t="n">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="DH17" t="n">
         <v>6</v>
@@ -6731,16 +6731,16 @@
         <v>1129360</v>
       </c>
       <c r="E18" t="n">
-        <v>6.9</v>
+        <v>6.9090909090909</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H18" t="n">
-        <v>644</v>
+        <v>734</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -6797,64 +6797,64 @@
         <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.11105362</v>
+        <v>0.12539222</v>
       </c>
       <c r="AB18" t="n">
-        <v>473</v>
+        <v>552</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="AF18" t="n">
-        <v>89.130434782609</v>
+        <v>89.74358974358999</v>
       </c>
       <c r="AG18" t="n">
-        <v>368</v>
+        <v>429</v>
       </c>
       <c r="AH18" t="n">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="AI18" t="n">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="AJ18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK18" t="n">
         <v>27</v>
       </c>
-      <c r="AK18" t="n">
-        <v>26</v>
-      </c>
       <c r="AL18" t="n">
-        <v>53.061224489796</v>
+        <v>51.923076923077</v>
       </c>
       <c r="AM18" t="n">
         <v>1</v>
       </c>
       <c r="AN18" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AO18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AP18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AQ18" t="n">
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="AS18" t="n">
         <v>3</v>
       </c>
       <c r="AT18" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AU18" t="n">
         <v>1</v>
@@ -6875,31 +6875,31 @@
         <v>100</v>
       </c>
       <c r="BA18" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="BB18" t="n">
-        <v>57.627118644068</v>
+        <v>60</v>
       </c>
       <c r="BC18" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BD18" t="n">
-        <v>58.620689655172</v>
+        <v>63.636363636364</v>
       </c>
       <c r="BE18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BF18" t="n">
-        <v>56.666666666667</v>
+        <v>56.25</v>
       </c>
       <c r="BG18" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="BH18" t="n">
         <v>7</v>
       </c>
       <c r="BI18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ18" t="n">
         <v>1</v>
@@ -6917,22 +6917,22 @@
         <v>2</v>
       </c>
       <c r="BO18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="BR18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BS18" t="n">
         <v>1</v>
       </c>
       <c r="BT18" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CK18" t="n">
         <v>1</v>
@@ -7004,19 +7004,19 @@
         <v>0</v>
       </c>
       <c r="CR18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CS18" t="n">
         <v>1</v>
       </c>
       <c r="CT18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CU18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CV18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -7028,13 +7028,13 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="DA18" t="n">
         <v>9</v>
       </c>
       <c r="DB18" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="DC18" t="n">
         <v>0</v>
@@ -7046,16 +7046,16 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="DG18" t="n">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="DH18" t="n">
         <v>5</v>
       </c>
       <c r="DI18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DJ18" t="n">
         <v>2304099</v>
@@ -8509,16 +8509,16 @@
         <v>94527</v>
       </c>
       <c r="E23" t="n">
-        <v>6.995652173913</v>
+        <v>6.975</v>
       </c>
       <c r="F23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H23" t="n">
-        <v>2070</v>
+        <v>2160</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -8573,10 +8573,10 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.12288021</v>
+        <v>0.12427748</v>
       </c>
       <c r="AB23" t="n">
-        <v>811</v>
+        <v>851</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -8585,28 +8585,28 @@
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="AF23" t="n">
-        <v>56.312292358804</v>
+        <v>56.240126382306</v>
       </c>
       <c r="AG23" t="n">
-        <v>602</v>
+        <v>633</v>
       </c>
       <c r="AH23" t="n">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="AI23" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AJ23" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AK23" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AL23" t="n">
-        <v>33.502538071066</v>
+        <v>33.009708737864</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
@@ -8624,13 +8624,13 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -8669,7 +8669,7 @@
         <v>100</v>
       </c>
       <c r="BG23" t="n">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="BH23" t="n">
         <v>0</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="BM23" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BN23" t="n">
         <v>7</v>
       </c>
       <c r="BO23" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="BP23" t="n">
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
-        <v>160.9</v>
+        <v>167.4</v>
       </c>
       <c r="BR23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS23" t="n">
         <v>0</v>
       </c>
       <c r="BT23" t="n">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="BU23" t="n">
         <v>0</v>
@@ -8735,10 +8735,10 @@
         <v>0</v>
       </c>
       <c r="CC23" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="CD23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CE23" t="n">
         <v>0</v>
@@ -8750,13 +8750,13 @@
         <v>4</v>
       </c>
       <c r="CH23" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="CI23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CJ23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CK23" t="n">
         <v>6</v>
@@ -8765,13 +8765,13 @@
         <v>6</v>
       </c>
       <c r="CM23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CN23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CO23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CP23" t="n">
         <v>0</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="DA23" t="n">
         <v>2</v>
@@ -8819,16 +8819,16 @@
         <v>0</v>
       </c>
       <c r="DE23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="DF23" t="n">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="DG23" t="n">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="DH23" t="n">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="DI23" t="n">
         <v>0</v>
@@ -8842,7 +8842,7 @@
         </is>
       </c>
       <c r="DL23" t="n">
-        <v>-2.6826</v>
+        <v>-2.7046</v>
       </c>
     </row>
   </sheetData>

--- a/sofaplayer/La_Liga/Espanyol_stats.xlsx
+++ b/sofaplayer/La_Liga/Espanyol_stats.xlsx
@@ -1101,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.32467584</v>
+        <v>2.3246209</v>
       </c>
       <c r="AB2" t="n">
         <v>520</v>
@@ -1122,10 +1122,10 @@
         <v>247</v>
       </c>
       <c r="AH2" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI2" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AJ2" t="n">
         <v>66</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="DG2" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1532,19 +1532,19 @@
         <v>2</v>
       </c>
       <c r="AZ3" t="n">
-        <v>28.571428571429</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BA3" t="n">
         <v>8</v>
       </c>
       <c r="BB3" t="n">
-        <v>61.538461538462</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BC3" t="n">
         <v>7</v>
       </c>
       <c r="BD3" t="n">
-        <v>58.333333333333</v>
+        <v>63.636363636364</v>
       </c>
       <c r="BE3" t="n">
         <v>1</v>
@@ -1667,13 +1667,13 @@
         <v>2</v>
       </c>
       <c r="CS3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CT3" t="n">
         <v>8</v>
       </c>
       <c r="CU3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CV3" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.826</v>
+        <v>4.7902</v>
       </c>
       <c r="L4" t="n">
         <v>234.75</v>
@@ -1813,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.08301666</v>
+        <v>2.08300496</v>
       </c>
       <c r="AB4" t="n">
         <v>415</v>
@@ -1894,7 +1894,7 @@
         <v>90</v>
       </c>
       <c r="BB4" t="n">
-        <v>47.872340425532</v>
+        <v>47.619047619048</v>
       </c>
       <c r="BC4" t="n">
         <v>40</v>
@@ -1906,7 +1906,7 @@
         <v>50</v>
       </c>
       <c r="BF4" t="n">
-        <v>52.083333333333</v>
+        <v>51.546391752577</v>
       </c>
       <c r="BG4" t="n">
         <v>154</v>
@@ -2029,10 +2029,10 @@
         <v>9</v>
       </c>
       <c r="CU4" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CV4" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="CW4" t="n">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.07535632</v>
+        <v>0.0753351</v>
       </c>
       <c r="AB5" t="n">
         <v>235</v>
@@ -2181,16 +2181,16 @@
         <v>2</v>
       </c>
       <c r="AE5" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF5" t="n">
-        <v>80.357142857143</v>
+        <v>79.761904761905</v>
       </c>
       <c r="AG5" t="n">
         <v>168</v>
       </c>
       <c r="AH5" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI5" t="n">
         <v>73</v>
@@ -2265,7 +2265,7 @@
         <v>46.153846153846</v>
       </c>
       <c r="BG5" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BH5" t="n">
         <v>8</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1.6297</v>
+        <v>1.6361</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>5</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.25972603</v>
+        <v>5.25996753</v>
       </c>
       <c r="AB7" t="n">
         <v>1083</v>
@@ -3043,7 +3043,7 @@
         <v>27</v>
       </c>
       <c r="CC7" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CD7" t="n">
         <v>38</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.01787875</v>
+        <v>2.01561185</v>
       </c>
       <c r="AB8" t="n">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AC8" t="n">
         <v>4</v>
@@ -3291,7 +3291,7 @@
         <v>50</v>
       </c>
       <c r="AS8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
         <v>11</v>
@@ -3309,22 +3309,22 @@
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ8" t="n">
-        <v>42.857142857143</v>
+        <v>46.666666666667</v>
       </c>
       <c r="BA8" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BB8" t="n">
-        <v>44.311377245509</v>
+        <v>44.910179640719</v>
       </c>
       <c r="BC8" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BD8" t="n">
-        <v>43.307086614173</v>
+        <v>44.094488188976</v>
       </c>
       <c r="BE8" t="n">
         <v>19</v>
@@ -3447,13 +3447,13 @@
         <v>28</v>
       </c>
       <c r="CS8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CT8" t="n">
         <v>27</v>
       </c>
       <c r="CU8" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="CV8" t="n">
         <v>21</v>
@@ -3545,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1.6763</v>
+        <v>1.7392</v>
       </c>
       <c r="L9" t="n">
         <v>1517</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.25782879</v>
+        <v>1.40573129</v>
       </c>
       <c r="AB10" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -3961,16 +3961,16 @@
         <v>17</v>
       </c>
       <c r="AE10" t="n">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AF10" t="n">
-        <v>87.408491947291</v>
+        <v>87.44525547445301</v>
       </c>
       <c r="AG10" t="n">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AH10" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AI10" t="n">
         <v>329</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="DG10" t="n">
         <v>396</v>
@@ -4305,7 +4305,7 @@
         <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.57385727</v>
+        <v>0.64804127</v>
       </c>
       <c r="AB11" t="n">
         <v>244</v>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4765</v>
+        <v>0.5459000000000001</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -4661,7 +4661,7 @@
         <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.37248776</v>
+        <v>0.37221976</v>
       </c>
       <c r="AB12" t="n">
         <v>790</v>
@@ -4715,7 +4715,7 @@
         <v>75</v>
       </c>
       <c r="AS12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT12" t="n">
         <v>36</v>
@@ -4742,13 +4742,13 @@
         <v>76</v>
       </c>
       <c r="BB12" t="n">
-        <v>50</v>
+        <v>49.673202614379</v>
       </c>
       <c r="BC12" t="n">
         <v>61</v>
       </c>
       <c r="BD12" t="n">
-        <v>48.412698412698</v>
+        <v>48.031496062992</v>
       </c>
       <c r="BE12" t="n">
         <v>15</v>
@@ -4877,7 +4877,7 @@
         <v>7</v>
       </c>
       <c r="CU12" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CV12" t="n">
         <v>11</v>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.22159285</v>
+        <v>1.22050169</v>
       </c>
       <c r="AB13" t="n">
         <v>301</v>
@@ -5044,7 +5044,7 @@
         <v>72</v>
       </c>
       <c r="AJ13" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AK13" t="n">
         <v>1</v>
@@ -5729,10 +5729,10 @@
         <v>2</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.5086896</v>
+        <v>1.4622784</v>
       </c>
       <c r="AB15" t="n">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="AC15" t="n">
         <v>2</v>
@@ -5741,19 +5741,19 @@
         <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AF15" t="n">
-        <v>82.34552332913</v>
+        <v>82.32323232323201</v>
       </c>
       <c r="AG15" t="n">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AH15" t="n">
         <v>390</v>
       </c>
       <c r="AI15" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AJ15" t="n">
         <v>108</v>
@@ -5774,7 +5774,7 @@
         <v>22</v>
       </c>
       <c r="AP15" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
@@ -5807,16 +5807,16 @@
         <v>75</v>
       </c>
       <c r="BA15" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BB15" t="n">
-        <v>55.555555555556</v>
+        <v>55.244755244755</v>
       </c>
       <c r="BC15" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BD15" t="n">
-        <v>59.090909090909</v>
+        <v>58.715596330275</v>
       </c>
       <c r="BE15" t="n">
         <v>15</v>
@@ -5966,7 +5966,7 @@
         <v>35</v>
       </c>
       <c r="DB15" t="n">
-        <v>74.468085106383</v>
+        <v>76.086956521739</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5981,7 +5981,7 @@
         <v>441</v>
       </c>
       <c r="DG15" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6037,7 +6037,7 @@
         <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>1.9854</v>
+        <v>1.9401</v>
       </c>
       <c r="L16" t="n">
         <v>487.5</v>
@@ -6085,7 +6085,7 @@
         <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>2.40439692</v>
+        <v>2.40439832</v>
       </c>
       <c r="AB16" t="n">
         <v>1189</v>
@@ -6139,7 +6139,7 @@
         <v>113</v>
       </c>
       <c r="AS16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT16" t="n">
         <v>40</v>
@@ -6166,13 +6166,13 @@
         <v>113</v>
       </c>
       <c r="BB16" t="n">
-        <v>52.073732718894</v>
+        <v>51.834862385321</v>
       </c>
       <c r="BC16" t="n">
         <v>105</v>
       </c>
       <c r="BD16" t="n">
-        <v>53.299492385787</v>
+        <v>53.030303030303</v>
       </c>
       <c r="BE16" t="n">
         <v>8</v>
@@ -6301,7 +6301,7 @@
         <v>64</v>
       </c>
       <c r="CU16" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="CV16" t="n">
         <v>12</v>
@@ -6319,10 +6319,10 @@
         <v>57</v>
       </c>
       <c r="DA16" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="DB16" t="n">
-        <v>63.235294117647</v>
+        <v>61.764705882353</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6393,7 +6393,7 @@
         <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2467</v>
+        <v>2.2415</v>
       </c>
       <c r="L17" t="n">
         <v>690</v>
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.11904991</v>
+        <v>1.12583059</v>
       </c>
       <c r="AB17" t="n">
         <v>1245</v>
@@ -6797,10 +6797,10 @@
         <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.12539222</v>
+        <v>0.12204902</v>
       </c>
       <c r="AB18" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>56.25</v>
       </c>
       <c r="BG18" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BH18" t="n">
         <v>7</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.12427748</v>
+        <v>0.12427912</v>
       </c>
       <c r="AB23" t="n">
         <v>851</v>
@@ -8819,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="DE23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="DF23" t="n">
         <v>279</v>
@@ -8842,7 +8842,7 @@
         </is>
       </c>
       <c r="DL23" t="n">
-        <v>-2.7046</v>
+        <v>-2.6253</v>
       </c>
     </row>
   </sheetData>
